--- a/apps/home/invest/movimentacao_todos_ativos.xlsx
+++ b/apps/home/invest/movimentacao_todos_ativos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Percentual</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>valor_ativo_atual</t>
         </is>
@@ -483,26 +493,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELET3</t>
+          <t>VALE3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.25371428571429</v>
+        <v>69.94133333333333</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1.75</v>
       </c>
-      <c r="H2" t="n">
-        <v>34.61000061035156</v>
+      <c r="J2" t="n">
+        <v>65.72000122070312</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +533,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>50.4</v>
+        <v>50.43065217391304</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>49.04000091552734</v>
+      <c r="J3" t="n">
+        <v>58.34999847412109</v>
       </c>
     </row>
     <row r="4">
@@ -543,26 +565,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CEAB3</t>
+          <t>AMBP3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="D4" t="n">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5.4</v>
+        <v>19.04674242424242</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5.139999866485596</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13.64999961853027</v>
       </c>
     </row>
     <row r="5">
@@ -573,26 +601,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMBP3</t>
+          <t>TASA4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>21.03</v>
+        <v>14.80232876712329</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.75</v>
       </c>
-      <c r="H5" t="n">
-        <v>15.51000022888184</v>
+      <c r="J5" t="n">
+        <v>14.02000045776367</v>
       </c>
     </row>
     <row r="6">
@@ -603,26 +637,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SIMH3</t>
+          <t>TGMA3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.669004739336494</v>
+        <v>22.15</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>7.159999847412109</v>
+      <c r="J6" t="n">
+        <v>25.67000007629395</v>
       </c>
     </row>
     <row r="7">
@@ -633,26 +673,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TASA4</t>
+          <t>ELET3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D7" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>14.848</v>
+        <v>35.25371428571429</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.75</v>
       </c>
-      <c r="H7" t="n">
-        <v>15.61999988555908</v>
+      <c r="J7" t="n">
+        <v>42.9900016784668</v>
       </c>
     </row>
     <row r="8">
@@ -663,26 +709,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TGMA3</t>
+          <t>SIMH3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="D8" t="n">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.15</v>
+        <v>9.359713261648746</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>24.60000038146973</v>
+      <c r="J8" t="n">
+        <v>7.25</v>
       </c>
     </row>
     <row r="9">
@@ -693,26 +745,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>CEAB3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>69.31999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>63.9900016784668</v>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8.060000419616699</v>
       </c>
     </row>
     <row r="10">
@@ -723,26 +781,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16.79</v>
+        <v>12.56</v>
       </c>
       <c r="D10" t="n">
-        <v>16.79</v>
+        <v>12.56</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>37.97223347230494</v>
+        <v>31.31503184713376</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>56.94</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38.033188</v>
       </c>
     </row>
     <row r="11">
@@ -753,26 +817,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01373</v>
+        <v>0.1025</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01373</v>
+        <v>0.1025</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>125013.658412236</v>
+        <v>8808.568790243902</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>170738</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13959.27</v>
       </c>
     </row>
     <row r="12">
@@ -783,26 +853,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.64</v>
+        <v>0.0148</v>
       </c>
       <c r="D12" t="n">
-        <v>10.64</v>
+        <v>0.0148</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>32.2731954887218</v>
+        <v>129429.5628378378</v>
       </c>
       <c r="G12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>21.22</v>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>260634.68</v>
       </c>
     </row>
     <row r="13">
@@ -813,26 +889,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0926</v>
+        <v>18.89</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0926</v>
+        <v>18.89</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8655.165237580994</v>
+        <v>41.66616199047115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>8991.93</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100.601712</v>
       </c>
     </row>
     <row r="14">
@@ -843,26 +925,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CPTS11</t>
+          <t>LVBI11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>210</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.190000000000001</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -873,26 +961,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HGLG11</t>
+          <t>VISC11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>162.93</v>
+        <v>104.0953846153846</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
-        <v>157.6999969482422</v>
+      <c r="J15" t="n">
+        <v>120.6999969482422</v>
       </c>
     </row>
     <row r="16">
@@ -903,26 +997,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PVBI11</t>
+          <t>XPML11</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>86.76000000000001</v>
+        <v>97.45</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>105.6500015258789</v>
+      <c r="J16" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="17">
@@ -933,26 +1033,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VISC11</t>
+          <t>HGLG11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>104.0953846153846</v>
+        <v>162.93</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>115.5999984741211</v>
+      <c r="J17" t="n">
+        <v>164.75</v>
       </c>
     </row>
     <row r="18">
@@ -963,26 +1069,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRCO11</t>
+          <t>RBVA11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>93.01000000000001</v>
+        <v>111.24</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>123.9100036621094</v>
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>113.1999969482422</v>
       </c>
     </row>
     <row r="19">
@@ -993,26 +1105,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PORD11</t>
+          <t>PVBI11</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>89.98999999999999</v>
+        <v>86.76000000000001</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.5</v>
       </c>
-      <c r="H19" t="n">
-        <v>89.37999725341797</v>
+      <c r="J19" t="n">
+        <v>102.9899978637695</v>
       </c>
     </row>
     <row r="20">
@@ -1023,26 +1141,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RBVA11</t>
+          <t>CPTS11</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>111.24</v>
+        <v>8.157796610169491</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>111.379997253418</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8.539999961853027</v>
       </c>
     </row>
     <row r="21">
@@ -1053,26 +1177,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KFOF11</t>
+          <t>BRCR11</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>75.3</v>
+        <v>54.63714285714286</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="n">
-        <v>94.83000183105469</v>
+      <c r="J21" t="n">
+        <v>59.47999954223633</v>
       </c>
     </row>
     <row r="22">
@@ -1083,26 +1213,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LVBI11</t>
+          <t>PORD11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>92.98999999999999</v>
+        <v>89.7576</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>117.1699981689453</v>
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>91.93000030517578</v>
       </c>
     </row>
     <row r="23">
@@ -1113,26 +1249,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XPML11</t>
+          <t>KFOF11</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97.45</v>
+        <v>83.45652173913044</v>
       </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>110</v>
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J23" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -1143,26 +1285,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HGRU11</t>
+          <t>BRCO11</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>116</v>
+        <v>95.77000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>128.6000061035156</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>125.4800033569336</v>
       </c>
     </row>
     <row r="25">
@@ -1173,26 +1321,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRCR11</t>
+          <t>HGRU11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>54.4115</v>
+        <v>118.3723076923077</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="n">
-        <v>53.81999969482422</v>
+      <c r="J25" t="n">
+        <v>137.9100036621094</v>
       </c>
     </row>
     <row r="26">
@@ -1203,26 +1357,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GARDE_PORTHOS_FIC_FIM</t>
+          <t>KINEA_ATLAS_II_FIM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2399.94931307</v>
+        <v>1749.717</v>
       </c>
       <c r="D26" t="n">
-        <v>2399.94931307</v>
+        <v>1749.717</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.250026400000265</v>
+        <v>1.707916194447445</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="n">
-        <v>1.316403</v>
+      <c r="J26" t="n">
+        <v>2.192876</v>
       </c>
     </row>
     <row r="27">
@@ -1233,26 +1393,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>KINEA_ATLAS_II_FIM</t>
+          <t>GARDE_PORTHOS_FIC_FIM</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1530.75</v>
+        <v>2399.94931307</v>
       </c>
       <c r="D27" t="n">
-        <v>1530.75</v>
+        <v>2399.94931307</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.952226032990364</v>
+        <v>1.250026400000265</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="n">
-        <v>2.103823</v>
+      <c r="J27" t="n">
+        <v>1.375287</v>
       </c>
     </row>
     <row r="28">
@@ -1279,10 +1445,16 @@
         <v>1.267248457720842</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>1.35985</v>
+      <c r="J28" t="n">
+        <v>1.458786</v>
       </c>
     </row>
     <row r="29">
@@ -1309,10 +1481,16 @@
         <v>1.35258851170704</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="H29" t="n">
-        <v>1.382498</v>
+      <c r="J29" t="n">
+        <v>1.449383</v>
       </c>
     </row>
     <row r="30">
@@ -1323,26 +1501,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ALUG11</t>
+          <t>BLQD39</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>35.01701149425288</v>
+        <v>54.04235294117647</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>29.27000045776367</v>
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>53.5</v>
       </c>
     </row>
     <row r="31">
@@ -1353,26 +1537,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WRLD11</t>
+          <t>USDB11</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>81.58301470588236</v>
+        <v>82.3125</v>
       </c>
       <c r="G31" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.19999694824219</v>
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>89.79000091552734</v>
       </c>
     </row>
     <row r="32">
@@ -1383,26 +1573,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GOLD11</t>
+          <t>WRLD11</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="D32" t="n">
-        <v>321</v>
+        <v>138</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F32" t="n">
-        <v>10.02056074766355</v>
+        <v>81.6877536231884</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>10.39999961853027</v>
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>92.98000335693359</v>
       </c>
     </row>
     <row r="33">
@@ -1413,26 +1609,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BLQD39</t>
+          <t>BNDX11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D33" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>54.07612903225806</v>
+        <v>79.95571428571429</v>
       </c>
       <c r="G33" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>49.88000106811523</v>
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>92.06999969482422</v>
       </c>
     </row>
     <row r="34">
@@ -1443,26 +1645,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BNDX11</t>
+          <t>ALUG11</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>86.10615384615386</v>
+        <v>34.7536170212766</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>88.41999816894531</v>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>33.9900016784668</v>
       </c>
     </row>
     <row r="35">
@@ -1473,26 +1681,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>USDB11</t>
+          <t>BHYG39</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D35" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>92.19</v>
+        <v>46.26605263157894</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>85.36000061035156</v>
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>47.90000152587891</v>
       </c>
     </row>
     <row r="36">
@@ -1503,26 +1717,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BHYG39</t>
+          <t>GOLD11</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="D36" t="n">
-        <v>36</v>
+        <v>351</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>46.28083333333333</v>
+        <v>10.0548717948718</v>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>45.43000030517578</v>
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10.44999980926514</v>
       </c>
     </row>
     <row r="37">
@@ -1533,26 +1753,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GGBR4</t>
+          <t>BPAC11</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E37" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F37" t="n">
-        <v>27.26972972972973</v>
+        <v>20.87971830985915</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>21.54999923706055</v>
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>37.02000045776367</v>
       </c>
     </row>
     <row r="38">
@@ -1563,26 +1789,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Tesouro Selic 2027</t>
+          <t>Tesouro IPCA+ 2026</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="D38" t="n">
-        <v>7.05</v>
+        <v>0.16</v>
       </c>
       <c r="E38" t="n">
-        <v>6.56</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>12270.25815602837</v>
+        <v>3176.375</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>13932.35</v>
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3678.72</v>
       </c>
     </row>
     <row r="39">
@@ -1593,26 +1825,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tesouro IPCA+ 2026</t>
+          <t>Tesouro Selic 2027</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.16</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="D39" t="n">
-        <v>0.16</v>
+        <v>7.05</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>6.56</v>
       </c>
       <c r="F39" t="n">
-        <v>3176.375</v>
+        <v>12270.25815602837</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3525.76</v>
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>14410.81</v>
       </c>
     </row>
     <row r="40">
@@ -1642,7 +1880,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>34.02999877929688</v>
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>30.85000038146973</v>
       </c>
     </row>
     <row r="41">
@@ -1653,26 +1897,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RBRF11</t>
+          <t>Tesouro Selic 2029</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>3.44</v>
       </c>
       <c r="E41" t="n">
-        <v>17</v>
+        <v>0.25</v>
       </c>
       <c r="F41" t="n">
-        <v>65.06823529411766</v>
+        <v>13350.48255813954</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>76.48999786376953</v>
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>14338.47</v>
       </c>
     </row>
     <row r="42">
@@ -1683,26 +1933,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RANI3</t>
+          <t>KNCR11</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>9.640000000000001</v>
+        <v>98.92</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>11.35999965667725</v>
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>103.4599990844727</v>
       </c>
     </row>
     <row r="43">
@@ -1713,26 +1969,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tesouro Selic 2029</t>
+          <t>ITUB4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.75</v>
+        <v>61</v>
       </c>
       <c r="E43" t="n">
-        <v>0.25</v>
+        <v>61</v>
       </c>
       <c r="F43" t="n">
-        <v>12583.14857142857</v>
+        <v>25.99819672131148</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13860.52</v>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>34.29000091552734</v>
       </c>
     </row>
     <row r="44">
@@ -1743,26 +2005,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ARZZ3</t>
+          <t>PRIO3</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F44" t="n">
-        <v>74.15371428571429</v>
+        <v>37.33515151515152</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>60.52000045776367</v>
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>42.54999923706055</v>
       </c>
     </row>
     <row r="45">
@@ -1773,26 +2041,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JSRE11</t>
+          <t>SQIA3</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="E45" t="n">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F45" t="n">
-        <v>61.73999999999999</v>
+        <v>16.38813559322034</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>68.58999633789062</v>
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1803,26 +2077,32 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PRIO3</t>
+          <t>GGBR4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D46" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E46" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F46" t="n">
-        <v>37.33515151515152</v>
+        <v>27.26972972972973</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>48.84999847412109</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>20.73999977111816</v>
       </c>
     </row>
     <row r="47">
@@ -1833,26 +2113,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tesouro Prefixado 2026</t>
+          <t>VIVT3</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>7.12</v>
+        <v>45</v>
       </c>
       <c r="E47" t="n">
-        <v>7.12</v>
+        <v>45</v>
       </c>
       <c r="F47" t="n">
-        <v>708.9157303370786</v>
+        <v>39.654</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>54.4900016784668</v>
       </c>
     </row>
     <row r="48">
@@ -1863,26 +2149,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SQIA3</t>
+          <t>TRPL4</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E48" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F48" t="n">
-        <v>16.38813559322034</v>
+        <v>24.31</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>27.14999961853027</v>
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>26.46999931335449</v>
       </c>
     </row>
     <row r="49">
@@ -1893,26 +2185,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ALUP11</t>
+          <t>ARZZ3</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F49" t="n">
-        <v>27.49169491525423</v>
+        <v>74.15371428571429</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>28.43000030517578</v>
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>58.77999877929688</v>
       </c>
     </row>
     <row r="50">
@@ -1923,26 +2221,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VIVT3</t>
+          <t>GUAR3</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="E50" t="n">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="F50" t="n">
-        <v>39.654</v>
+        <v>6.11</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>45.81999969482422</v>
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.860000133514404</v>
       </c>
     </row>
     <row r="51">
@@ -1953,26 +2257,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRPL4</t>
+          <t>ALUP11</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F51" t="n">
-        <v>24.31</v>
+        <v>27.49169491525423</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>22.30999946594238</v>
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>29.04999923706055</v>
       </c>
     </row>
     <row r="52">
@@ -1983,7 +2293,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KNCR11</t>
+          <t>JSRE11</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1996,13 +2306,19 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>98.92</v>
+        <v>61.73999999999999</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>101.4800033569336</v>
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>74.59999847412109</v>
       </c>
     </row>
     <row r="53">
@@ -2013,26 +2329,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ITUB4</t>
+          <t>RANI3</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="E53" t="n">
-        <v>61</v>
+        <v>300</v>
       </c>
       <c r="F53" t="n">
-        <v>25.99819672131148</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>26.98999977111816</v>
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9.949999809265137</v>
       </c>
     </row>
     <row r="54">
@@ -2043,26 +2365,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GUAR3</t>
+          <t>RBRF11</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="E54" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>6.11</v>
+        <v>65.06823529411766</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>4.599999904632568</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>7.940000057220459</v>
       </c>
     </row>
     <row r="55">
@@ -2073,26 +2401,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BPAC11</t>
+          <t>Tesouro Prefixado 2026</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>71</v>
+        <v>7.12</v>
       </c>
       <c r="E55" t="n">
-        <v>71</v>
+        <v>7.12</v>
       </c>
       <c r="F55" t="n">
-        <v>20.87971830985915</v>
+        <v>708.9157303370786</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>30.86000061035156</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2103,26 +2437,32 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KDIF11</t>
+          <t>Tesouro IPCA+ 2045</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>15.45</v>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
+        <v>15.45</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>125.3338095238095</v>
+        <v>1132.359223300971</v>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>133.1999969482422</v>
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1272.44</v>
       </c>
     </row>
     <row r="57">
@@ -2137,22 +2477,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D57" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>103.9669811320755</v>
+        <v>104.2078947368421</v>
       </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>5</v>
       </c>
-      <c r="H57" t="n">
-        <v>105.4000015258789</v>
+      <c r="J57" t="n">
+        <v>106.8899993896484</v>
       </c>
     </row>
     <row r="58">
@@ -2163,26 +2509,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tesouro IPCA+ 2045</t>
+          <t>WA_IMAB5_ATIVO_FI_RF</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13.96</v>
+        <v>2136.6302</v>
       </c>
       <c r="D58" t="n">
-        <v>13.96</v>
+        <v>2136.6302</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1110.852435530086</v>
+        <v>2.9365728</v>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>5</v>
       </c>
-      <c r="H58" t="n">
-        <v>1164.14</v>
+      <c r="J58" t="n">
+        <v>2.960938</v>
       </c>
     </row>
     <row r="59">
@@ -2193,26 +2545,32 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WA_IMAB5_ATIVO_FI_RF</t>
+          <t>KDIF11</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2840.33</v>
+        <v>22</v>
       </c>
       <c r="D59" t="n">
-        <v>2840.33</v>
+        <v>22</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2.675740199906349</v>
+        <v>125.7463636363636</v>
       </c>
       <c r="G59" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>2.844412</v>
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>139.0200042724609</v>
       </c>
     </row>
     <row r="60">
@@ -2236,12 +2594,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>11637.64</v>
+        <v>13028</v>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>10</v>
       </c>
-      <c r="H60" t="n">
+      <c r="J60" t="n">
         <v>12021</v>
       </c>
     </row>
@@ -2269,10 +2633,16 @@
         <v>13010.21582733813</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>5</v>
       </c>
-      <c r="H61" t="n">
-        <v>13975.87</v>
+      <c r="J61" t="n">
+        <v>14446.77</v>
       </c>
     </row>
   </sheetData>

--- a/apps/home/invest/movimentacao_todos_ativos.xlsx
+++ b/apps/home/invest/movimentacao_todos_ativos.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -518,7 +518,7 @@
         <v>1.75</v>
       </c>
       <c r="J2" t="n">
-        <v>65.72000122070312</v>
+        <v>65.84999847412109</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>58.34999847412109</v>
+        <v>58.08000183105469</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         <v>1.75</v>
       </c>
       <c r="J4" t="n">
-        <v>13.64999961853027</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="5">
@@ -626,7 +626,7 @@
         <v>1.75</v>
       </c>
       <c r="J5" t="n">
-        <v>14.02000045776367</v>
+        <v>14.10000038146973</v>
       </c>
     </row>
     <row r="6">
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>25.67000007629395</v>
+        <v>26.59000015258789</v>
       </c>
     </row>
     <row r="7">
@@ -698,7 +698,7 @@
         <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>42.9900016784668</v>
+        <v>43.59999847412109</v>
       </c>
     </row>
     <row r="8">
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>7.25</v>
+        <v>7.650000095367432</v>
       </c>
     </row>
     <row r="9">
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>8.060000419616699</v>
+        <v>9.590000152587891</v>
       </c>
     </row>
     <row r="10">
@@ -806,7 +806,7 @@
         <v>0.25</v>
       </c>
       <c r="J10" t="n">
-        <v>38.033188</v>
+        <v>46.385902</v>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
         <v>0.75</v>
       </c>
       <c r="J11" t="n">
-        <v>13959.27</v>
+        <v>17655.84</v>
       </c>
     </row>
     <row r="12">
@@ -878,7 +878,7 @@
         <v>1.5</v>
       </c>
       <c r="J12" t="n">
-        <v>260634.68</v>
+        <v>316532.39</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
         <v>0.5</v>
       </c>
       <c r="J13" t="n">
-        <v>100.601712</v>
+        <v>94.21689000000001</v>
       </c>
     </row>
     <row r="14">
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>119</v>
+        <v>118.7900009155273</v>
       </c>
     </row>
     <row r="15">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6999969482422</v>
+        <v>120.5999984741211</v>
       </c>
     </row>
     <row r="16">
@@ -1022,7 +1022,7 @@
         <v>1.5</v>
       </c>
       <c r="J16" t="n">
-        <v>118</v>
+        <v>118.1600036621094</v>
       </c>
     </row>
     <row r="17">
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>164.75</v>
+        <v>168.6000061035156</v>
       </c>
     </row>
     <row r="18">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>113.1999969482422</v>
+        <v>112.9400024414062</v>
       </c>
     </row>
     <row r="19">
@@ -1130,7 +1130,7 @@
         <v>1.5</v>
       </c>
       <c r="J19" t="n">
-        <v>102.9899978637695</v>
+        <v>102.1900024414062</v>
       </c>
     </row>
     <row r="20">
@@ -1166,7 +1166,7 @@
         <v>1.5</v>
       </c>
       <c r="J20" t="n">
-        <v>8.539999961853027</v>
+        <v>8.520000457763672</v>
       </c>
     </row>
     <row r="21">
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>59.47999954223633</v>
+        <v>59.29999923706055</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1.75</v>
       </c>
       <c r="J22" t="n">
-        <v>91.93000030517578</v>
+        <v>91.12999725341797</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1274,7 @@
         <v>1.75</v>
       </c>
       <c r="J23" t="n">
-        <v>101</v>
+        <v>100.6500015258789</v>
       </c>
     </row>
     <row r="24">
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>125.4800033569336</v>
+        <v>122.9800033569336</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>137.9100036621094</v>
+        <v>135.9600067138672</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1382,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.192876</v>
+        <v>2.194011</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1418,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>1.375287</v>
+        <v>1.384118</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.458786</v>
+        <v>1.46786</v>
       </c>
     </row>
     <row r="29">
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.449383</v>
+        <v>1.446389</v>
       </c>
     </row>
     <row r="30">
@@ -1526,7 +1526,7 @@
         <v>1.5</v>
       </c>
       <c r="J30" t="n">
-        <v>53.5</v>
+        <v>53.68000030517578</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>89.79000091552734</v>
+        <v>90.05999755859375</v>
       </c>
     </row>
     <row r="32">
@@ -1598,7 +1598,7 @@
         <v>8.5</v>
       </c>
       <c r="J32" t="n">
-        <v>92.98000335693359</v>
+        <v>94.27999877929688</v>
       </c>
     </row>
     <row r="33">
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>92.06999969482422</v>
+        <v>91.97000122070312</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1670,7 @@
         <v>2.5</v>
       </c>
       <c r="J34" t="n">
-        <v>33.9900016784668</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="35">
@@ -1706,7 +1706,7 @@
         <v>1.5</v>
       </c>
       <c r="J35" t="n">
-        <v>47.90000152587891</v>
+        <v>47.65000152587891</v>
       </c>
     </row>
     <row r="36">
@@ -1742,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>10.44999980926514</v>
+        <v>11.14000034332275</v>
       </c>
     </row>
     <row r="37">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>37.02000045776367</v>
+        <v>35.54999923706055</v>
       </c>
     </row>
     <row r="38">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3678.72</v>
+        <v>3699.85</v>
       </c>
     </row>
     <row r="39">
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14410.81</v>
+        <v>14498.06</v>
       </c>
     </row>
     <row r="40">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.85000038146973</v>
+        <v>32.68000030517578</v>
       </c>
     </row>
     <row r="41">
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14338.47</v>
+        <v>14425.36</v>
       </c>
     </row>
     <row r="42">
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>103.4599990844727</v>
+        <v>102.4000015258789</v>
       </c>
     </row>
     <row r="43">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.29000091552734</v>
+        <v>33.77999877929688</v>
       </c>
     </row>
     <row r="44">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>42.54999923706055</v>
+        <v>44.31999969482422</v>
       </c>
     </row>
     <row r="45">
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.73999977111816</v>
+        <v>21.67000007629395</v>
       </c>
     </row>
     <row r="47">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>54.4900016784668</v>
+        <v>52.06999969482422</v>
       </c>
     </row>
     <row r="48">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>26.46999931335449</v>
+        <v>24.63999938964844</v>
       </c>
     </row>
     <row r="49">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>58.77999877929688</v>
+        <v>57.90000152587891</v>
       </c>
     </row>
     <row r="50">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.860000133514404</v>
+        <v>6.130000114440918</v>
       </c>
     </row>
     <row r="51">
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>29.04999923706055</v>
+        <v>29.73999977111816</v>
       </c>
     </row>
     <row r="52">
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>74.59999847412109</v>
+        <v>75.25</v>
       </c>
     </row>
     <row r="53">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>9.949999809265137</v>
+        <v>8.869999885559082</v>
       </c>
     </row>
     <row r="54">
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>7.940000057220459</v>
+        <v>8.159999847412109</v>
       </c>
     </row>
     <row r="55">
@@ -2462,7 +2462,7 @@
         <v>7.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1272.44</v>
+        <v>1265.72</v>
       </c>
     </row>
     <row r="57">
@@ -2498,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="J57" t="n">
-        <v>106.8899993896484</v>
+        <v>106.0400009155273</v>
       </c>
     </row>
     <row r="58">
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>2.960938</v>
+        <v>2.973105</v>
       </c>
     </row>
     <row r="59">
@@ -2570,7 +2570,7 @@
         <v>2.5</v>
       </c>
       <c r="J59" t="n">
-        <v>139.0200042724609</v>
+        <v>138.1999969482422</v>
       </c>
     </row>
     <row r="60">
@@ -2606,7 +2606,7 @@
         <v>10</v>
       </c>
       <c r="J60" t="n">
-        <v>12021</v>
+        <v>13589</v>
       </c>
     </row>
     <row r="61">
@@ -2642,7 +2642,7 @@
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>14446.77</v>
+        <v>14535.12</v>
       </c>
     </row>
   </sheetData>
